--- a/1.マニュアル/05.帳票作成/帳票のマニュアル.xlsx
+++ b/1.マニュアル/05.帳票作成/帳票のマニュアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitHub\Rootstock_SC\1.マニュアル\05.帳票作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4CE707-21ED-43F0-B280-D5A8C25F6090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C27CBF-13BD-4C20-A874-17569BE25560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootForm設定" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_FeedbackSheetA3U1231" localSheetId="2">#REF!</definedName>
     <definedName name="_xlcn.WorksheetConnection_FeedbackSheetA3U1231">#REF!</definedName>
     <definedName name="_xlcn.WorksheetConnection_FeedbackSheetA3V1231" localSheetId="2">#REF!</definedName>
     <definedName name="_xlcn.WorksheetConnection_FeedbackSheetA3V1231">#REF!</definedName>
-    <definedName name="PartsDeliveryRequestNo" localSheetId="2">[2]部品要求依頼書テンプレート!#REF!</definedName>
-    <definedName name="PartsDeliveryRequestNo">[2]部品要求依頼書テンプレート!#REF!</definedName>
+    <definedName name="PartsDeliveryRequestNo" localSheetId="2">[1]部品要求依頼書テンプレート!#REF!</definedName>
+    <definedName name="PartsDeliveryRequestNo">[1]部品要求依頼書テンプレート!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>リビジョン</t>
     <phoneticPr fontId="4"/>
@@ -125,12 +124,45 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>以下のテンプレートを作成します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３．帳票をアップロードしてデータをマッチングする</t>
+    <rPh sb="2" eb="4">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４．データをマッピングしたあとでSO処理に作成した帳票を設定します</t>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +234,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -247,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,6 +311,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1416,22 +1457,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>22328</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>164398</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>223430</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30832BDD-FE66-6501-6244-486E6BAAD4A5}"/>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2F8F08-603B-2E9F-4333-6E651453C82C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,8 +1488,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="694764" y="11127357"/>
-          <a:ext cx="11609294" cy="5083864"/>
+          <a:off x="683560" y="98017854"/>
+          <a:ext cx="11642912" cy="3517958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1460,22 +1501,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>153752</xdr:rowOff>
+      <xdr:colOff>654137</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CF6D40-AEAD-4E3E-B02B-8FD2FAE7706D}"/>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AF22F2-997A-4C92-ACA7-2161EB0B7AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,6 +1526,270 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="58718824"/>
+          <a:ext cx="11591078" cy="5692588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657420</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FB0923-E71E-FCEF-1539-796DD89797FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="52835735"/>
+          <a:ext cx="11594361" cy="5748618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81904</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E738126-5857-ABCF-B52E-498789D4E4D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="47187971"/>
+          <a:ext cx="11702404" cy="5468470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>654137</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3328CE74-E252-400D-851C-D9FA45CB5495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="41304882"/>
+          <a:ext cx="11591078" cy="5692588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>654138</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A8D441-5DDC-6C85-A7A5-48E84E03D479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683560" y="35186471"/>
+          <a:ext cx="11591078" cy="5692588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3200</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>164398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30832BDD-FE66-6501-6244-486E6BAAD4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694764" y="11127357"/>
+          <a:ext cx="11609294" cy="5083864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CF6D40-AEAD-4E3E-B02B-8FD2FAE7706D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1700,7 +2005,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2147,13 +2452,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>56616</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>33262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2170,7 +2475,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2191,13 +2496,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>116122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2214,7 +2519,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2235,13 +2540,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2301,13 +2606,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2418,13 +2723,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2484,13 +2789,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2585,13 +2890,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>2375</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>68716</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2608,7 +2913,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2629,13 +2934,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>89645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>67237</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2702,62 +3007,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>18459</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>98977</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC75E454-0C38-CBCB-FB5A-A023B0D3C00D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="694765" y="34200354"/>
-          <a:ext cx="11627753" cy="5959652"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2772,8 +3033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9569824" y="36699265"/>
-          <a:ext cx="2700618" cy="918883"/>
+          <a:off x="10062883" y="37831060"/>
+          <a:ext cx="2700618" cy="918882"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2825,15 +3086,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2849,8 +3110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3518647" y="36777706"/>
-          <a:ext cx="6062382" cy="3406588"/>
+          <a:off x="3305735" y="37315588"/>
+          <a:ext cx="6533030" cy="3406589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2889,62 +3150,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>7253</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>76564</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820DCD3B-F491-43EA-ACAE-7FB76ACE171C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683559" y="40531676"/>
-          <a:ext cx="11627753" cy="5959652"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2959,8 +3176,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8213912" y="43702941"/>
-          <a:ext cx="818029" cy="201706"/>
+          <a:off x="6925235" y="43848619"/>
+          <a:ext cx="963706" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3001,16 +3218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656665</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>6721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>679077</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>163604</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3025,8 +3242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8198224" y="43989810"/>
-          <a:ext cx="979394" cy="228601"/>
+          <a:off x="6808694" y="44135486"/>
+          <a:ext cx="979394" cy="228602"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3067,16 +3284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313763</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3091,8 +3308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="46067383"/>
-          <a:ext cx="952500" cy="201705"/>
+          <a:off x="7989793" y="46100999"/>
+          <a:ext cx="1210235" cy="627529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3133,16 +3350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>212913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3157,8 +3374,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3597088" y="44655441"/>
-          <a:ext cx="5883088" cy="593912"/>
+          <a:off x="3395382" y="45282972"/>
+          <a:ext cx="6320118" cy="493058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3201,13 +3418,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3223,13 +3440,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9267265" y="42425470"/>
-          <a:ext cx="2700618" cy="918883"/>
+          <a:off x="9267265" y="43433999"/>
+          <a:ext cx="2700618" cy="918884"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -61729"/>
-            <a:gd name="adj2" fmla="val 101685"/>
+            <a:gd name="adj1" fmla="val -101978"/>
+            <a:gd name="adj2" fmla="val 7783"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -3294,7 +3511,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>SO_Date</a:t>
+            <a:t>Order_Number</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
@@ -3309,62 +3526,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22995</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>27306</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156BB1C-9EDF-9163-5749-EF04F6FF50EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="694765" y="46694912"/>
-          <a:ext cx="11632289" cy="6336217"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>212911</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3379,8 +3552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8225118" y="49496383"/>
-          <a:ext cx="481853" cy="190499"/>
+          <a:off x="6869207" y="49698089"/>
+          <a:ext cx="1030940" cy="156882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3422,14 +3595,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:colOff>661146</xdr:colOff>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3445,8 +3618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8863853" y="48185294"/>
-          <a:ext cx="2700618" cy="1098177"/>
+          <a:off x="8863852" y="49193824"/>
+          <a:ext cx="4067735" cy="1098176"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3484,12 +3657,44 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>注文日のフォマットを編集するために</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>SO_Date</a:t>
+            <a:t>Order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Date</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
@@ -3559,16 +3764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>392205</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3583,8 +3788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8706970" y="51928059"/>
-          <a:ext cx="1938617" cy="291353"/>
+          <a:off x="7507941" y="51737559"/>
+          <a:ext cx="1288677" cy="280147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3623,62 +3828,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22708</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>226177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CC719D-A74D-7238-E155-80934FE11D8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="672353" y="53194324"/>
-          <a:ext cx="11654414" cy="6154089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661148</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>224119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3693,8 +3854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8303560" y="55334647"/>
-          <a:ext cx="1333499" cy="862853"/>
+          <a:off x="6813177" y="55648413"/>
+          <a:ext cx="2330823" cy="324969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3736,15 +3897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>262</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3759,8 +3920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9614648" y="54651088"/>
-          <a:ext cx="2700618" cy="918883"/>
+          <a:off x="9637059" y="54740736"/>
+          <a:ext cx="2700618" cy="918882"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3815,62 +3976,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>7253</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>76563</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A2C711-D739-4BE0-8A2B-8EEB81F86DFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683559" y="59828206"/>
-          <a:ext cx="11627753" cy="5959652"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>235321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3885,8 +4002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3574676" y="63951970"/>
-          <a:ext cx="694765" cy="302559"/>
+          <a:off x="3384176" y="62719321"/>
+          <a:ext cx="694765" cy="459443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3927,16 +4044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3951,8 +4068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8045823" y="64209706"/>
-          <a:ext cx="1367118" cy="235323"/>
+          <a:off x="8482853" y="62842589"/>
+          <a:ext cx="1221441" cy="201705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3993,16 +4110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4017,13 +4134,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8404412" y="62080588"/>
-          <a:ext cx="2700618" cy="918883"/>
+          <a:off x="10096500" y="67851618"/>
+          <a:ext cx="4045323" cy="1456764"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -66293"/>
-            <a:gd name="adj2" fmla="val 52905"/>
+            <a:gd name="adj1" fmla="val -70171"/>
+            <a:gd name="adj2" fmla="val 60405"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -4061,7 +4178,346 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>変数のフォーマットを編集します</a:t>
+            <a:t>データ型がテーブルの場合、以下の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>つのタグで宣言する必要があります。「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SOAckDetails</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」はテーブルの名です。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>«TableStart:SOAckDetails»</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>«TableEnd:SOAckDetails»</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>402273</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>210190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41800294-FA24-55C8-E03D-A214D6544206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13704796" y="2285999"/>
+          <a:ext cx="7887801" cy="4591691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13609</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7686</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9712FB8-3121-019D-4AA6-B5102D0A72A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693966" y="18669000"/>
+          <a:ext cx="11560149" cy="5361214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EF481D-3A5F-EE83-482B-17CFE76D021B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="74988964"/>
+          <a:ext cx="11566127" cy="5197929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97807DA1-E73A-4A2B-8EB2-EE0C182D867F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5939118" y="76513764"/>
+          <a:ext cx="1187824" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="吹き出し: 角を丸めた四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC1A70B-6F2E-4725-AFA1-9055854E70AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8281147" y="75337147"/>
+          <a:ext cx="4045323" cy="1344706"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70171"/>
+            <a:gd name="adj2" fmla="val 40405"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>作成したファイルをアップします</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4075,23 +4531,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>368654</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142956</xdr:rowOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>144873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41800294-FA24-55C8-E03D-A214D6544206}"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1507BAA0-CC0D-5173-A340-3DE29796A229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4100,147 +4556,3170 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12987618" y="571500"/>
-          <a:ext cx="7887801" cy="4591691"/>
+          <a:off x="683559" y="77309383"/>
+          <a:ext cx="11620500" cy="4380696"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D036A9-8B93-4625-817F-E83EAB0F3024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11340353" y="78810971"/>
+          <a:ext cx="840441" cy="257736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="吹き出し: 角を丸めた四角形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83A2BD3-67FD-4D02-8AB4-B3389AFCB04A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13010030" y="77791235"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76566"/>
+            <a:gd name="adj2" fmla="val 94817"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アップしたファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RootForm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に登録します</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A536FC1-85E0-0F53-9424-EFD6D1A4505F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="81858970"/>
+          <a:ext cx="11609294" cy="2028265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CE14E4-E02C-4E28-98F0-B7F7E4D81373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5053854" y="83080412"/>
+          <a:ext cx="381000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="吹き出し: 角を丸めた四角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509A12E7-B587-4541-8DFB-58139AE58626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5513294" y="82195147"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52147"/>
+            <a:gd name="adj2" fmla="val 77170"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録ボタンをクリックする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81789</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7957025F-42BB-4621-7262-F15100FC0B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="84133766"/>
+          <a:ext cx="11702289" cy="2218764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95009A8-E76A-458A-BA90-80421C77F609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314264" y="84873353"/>
+          <a:ext cx="459441" cy="201706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="吹き出し: 角を丸めた四角形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F4BB79-F70C-44C1-A020-3ABBF976B856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4908176" y="83976882"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52147"/>
+            <a:gd name="adj2" fmla="val 77170"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録が完成すれば戻るボタンをクリックする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>12331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487E30AE-1A29-EC40-DD8E-DD6E5CE0F314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="86722324"/>
+          <a:ext cx="11676529" cy="5424772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658E57E3-7FD1-4E8F-8ADF-895636F75E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="88324765"/>
+          <a:ext cx="1042147" cy="2061882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="吹き出し: 角を丸めた四角形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C793BB8F-CD4E-4E04-A091-C6771B466AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2218765" y="88156677"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52147"/>
+            <a:gd name="adj2" fmla="val 77170"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定義した変数を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Template Field</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に全て登録しました。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>215379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3F7597-FD89-A160-93A4-495C33BB5977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="92605413"/>
+          <a:ext cx="11620500" cy="5157172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDDD88B-257A-403D-B45B-3D1B31ADF675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11228295" y="94286294"/>
+          <a:ext cx="974912" cy="257735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="吹き出し: 角を丸めた四角形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5556A8BB-D62F-49DF-A254-9B2E6FFDE53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12180795" y="93345000"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52147"/>
+            <a:gd name="adj2" fmla="val 77170"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>データをマッチングするため、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MapFields</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をクリックする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B52F51B-08C8-4772-8424-D4B9E126866E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="840440" y="100371088"/>
+          <a:ext cx="1131795" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8A4827-DB64-4A8C-B7C7-B24487B93822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4874558" y="99138441"/>
+          <a:ext cx="3328147" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="吹き出し: 角を丸めた四角形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631F31F7-DB65-4871-A36C-BCFF7DD1C3C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4258235" y="100460735"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -110577"/>
+            <a:gd name="adj2" fmla="val -33124"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>へドラッグ＆ドロップします</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="楕円 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52B6280-DC9D-B399-50B7-7033EFF1DD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1456765" y="100169382"/>
+          <a:ext cx="358588" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129989</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488577</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="楕円 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D4AD83-FD60-4808-BAD6-5502C3304D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6282018" y="99167576"/>
+          <a:ext cx="358588" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1100"/>
+            <a:t>21</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>28236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F142F6-5FA6-1C66-3577-A988F2BE1060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="101783030"/>
+          <a:ext cx="11654117" cy="3558088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF8DF81-EC81-4769-8684-7E7519377626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1871382" y="102791560"/>
+          <a:ext cx="1143000" cy="168088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="吹き出し: 角を丸めた四角形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A5B50E-D0E5-45D7-8104-54321545EEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4112558" y="103150147"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -91101"/>
+            <a:gd name="adj2" fmla="val -83124"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テーブルに関連付けられたデータをマッピングする場合、ドキュメントセクションを選択する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>26153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6635AC4A-EB19-DFFD-851C-ED03CE4440FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683560" y="105783529"/>
+          <a:ext cx="11620500" cy="3085359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECA3AAB-F948-449F-9C6F-3D26D32104D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4538383" y="106422264"/>
+          <a:ext cx="1008529" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>64564</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB47C3D-3972-A79F-E807-5D31741F4AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="109313382"/>
+          <a:ext cx="11685064" cy="3059206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7BF3DE-885F-4B82-8280-E4EE84D945D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5345206" y="111655412"/>
+          <a:ext cx="1053353" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>57540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8594C7E8-8CD3-D9F5-BD5F-69CC0F5185E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="112607913"/>
+          <a:ext cx="11642912" cy="4293362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661148</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="吹き出し: 角を丸めた四角形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B65A9A6-6D98-4A1A-8587-8525A4732DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6813177" y="111509735"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61741"/>
+            <a:gd name="adj2" fmla="val -11065"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="吹き出し: 角を丸めた四角形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D5D65F-C9DA-4275-9B93-DEA78D447AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4291853" y="115644706"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50404"/>
+            <a:gd name="adj2" fmla="val 24229"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Apply</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>した結果です</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>206504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE5F8C2-84BE-4765-7047-8A740B5F29BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="117314383"/>
+          <a:ext cx="11631706" cy="3736356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14409</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387C38B8-04D3-0FA2-CC1E-CCFEA146EB98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683560" y="121314882"/>
+          <a:ext cx="11634908" cy="3350559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>516</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E39D80D-970C-4CEB-8C87-4CFEC7E2E1FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10981765" y="121908794"/>
+          <a:ext cx="672353" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467BF0AF-FC87-439C-BCE7-14A2A8B2DA45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7463118" y="122614764"/>
+          <a:ext cx="851647" cy="560295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949F39C3-D016-4190-99B0-29A8D2401A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7597589" y="123287118"/>
+          <a:ext cx="806823" cy="246530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C03240-5FAC-4CE6-AC8D-2F20E85F3622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750795" y="120698559"/>
+          <a:ext cx="1725705" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>672354</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36375710-0C77-4C79-9EEC-23BA451F98FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4863354" y="118401353"/>
+          <a:ext cx="3328147" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>145678</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>582708</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="吹き出し: 角を丸めた四角形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D4B362-7E72-44F0-93A2-79D8D56E1AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4247031" y="119723647"/>
+          <a:ext cx="3854824" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -100112"/>
+            <a:gd name="adj2" fmla="val 102170"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>へドラッグ＆ドロップします</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>616325</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="楕円 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C940FC-B60F-4585-9410-4FBD8FC0CA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1299884" y="120586500"/>
+          <a:ext cx="358588" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118785</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>477373</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="楕円 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0EE905-FBEF-4E99-B9EB-88AE796C6828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6270814" y="118430488"/>
+          <a:ext cx="358588" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1100"/>
+            <a:t>21</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="吹き出し: 角を丸めた四角形 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EAB4F8-E27A-4B05-ACB5-1409240A75F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8897471" y="122547528"/>
+          <a:ext cx="3854824" cy="1109383"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6283"/>
+            <a:gd name="adj2" fmla="val -82589"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Line</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の昇順でテーブル内のデータを表示したい場合は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sort</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をクリックすして昇順を設定して保存します。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>551</xdr:row>
+      <xdr:rowOff>12713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69A6674-E2D9-1073-3707-431649D6EA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="125550706"/>
+          <a:ext cx="11654117" cy="4719183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661148</xdr:colOff>
+      <xdr:row>544</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CCEE65-F44C-47CC-8C4A-30FA96F8274F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="974911" y="128509061"/>
+          <a:ext cx="1736913" cy="291352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>212914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="吹き出し: 角を丸めた四角形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB55CB4E-939B-40FB-AF79-18B6028E3B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3204882" y="128419413"/>
+          <a:ext cx="3854824" cy="1109383"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60868"/>
+            <a:gd name="adj2" fmla="val -29054"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>作成した帳票を設定します</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66917</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="図 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9762D5DD-224C-3FE0-E7C1-462B9CFC3EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683560" y="130492500"/>
+          <a:ext cx="11687416" cy="4807324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>558</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>560</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AA4862-E833-4C1A-8DF2-92371C1D9CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10611970" y="132117353"/>
+          <a:ext cx="1736913" cy="291352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55387</xdr:colOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="図 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF764B3-A9F6-86C1-C862-475444A8F360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="135434294"/>
+          <a:ext cx="11675887" cy="4560794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="吹き出し: 角を丸めた四角形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F426AA-3753-4B6B-9820-1501279A759C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3709146" y="138852090"/>
+          <a:ext cx="1064559" cy="537882"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65105"/>
+            <a:gd name="adj2" fmla="val -259988"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>結果です</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="vi-VN" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="RS組織構成"/>
-      <sheetName val="ERP System Setup Flow"/>
-      <sheetName val="目次"/>
-      <sheetName val="Revision"/>
-      <sheetName val="従業員"/>
-      <sheetName val="製造ユーザー"/>
-      <sheetName val="通貨マスタ"/>
-      <sheetName val="会社マスタ"/>
-      <sheetName val="ディビジョンマスタ"/>
-      <sheetName val="ディビジョン住所"/>
-      <sheetName val="単位マスタ"/>
-      <sheetName val="ショップカレンダー"/>
-      <sheetName val="勘定科目（アカウント表）"/>
-      <sheetName val="補助元帳勘定"/>
-      <sheetName val="支払条件"/>
-      <sheetName val="組織部門"/>
-      <sheetName val="サイトマスタ"/>
-      <sheetName val="在庫ロケーションID"/>
-      <sheetName val="在庫ロケーションNo"/>
-      <sheetName val="在庫コモディティ コード"/>
-      <sheetName val="仕入先クラス"/>
-      <sheetName val="仕入先マスタ(Vendor)"/>
-      <sheetName val="仕入先住所 "/>
-      <sheetName val="仕入先連絡先"/>
-      <sheetName val="製造部門"/>
-      <sheetName val="製造プロセス"/>
-      <sheetName val="製造ワークセンター"/>
-      <sheetName val="製造労務費グレード"/>
-      <sheetName val="工順マスタ(Routing)"/>
-      <sheetName val="エンジニアリング品目マスタ"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="POコモディティ コード"/>
-      <sheetName val="購買品目マスタ"/>
-      <sheetName val="PO管理レコード"/>
-      <sheetName val="仕入先請求管理(PO-買掛金)"/>
-      <sheetName val="BOMマスタ"/>
-      <sheetName val="在庫品目マスタ"/>
-      <sheetName val="承認者"/>
-      <sheetName val="SO管理"/>
-      <sheetName val="運送条件"/>
-      <sheetName val="FOBコード"/>
-      <sheetName val="輸送手段"/>
-      <sheetName val="輸送業者"/>
-      <sheetName val="輸送手段による輸送業者"/>
-      <sheetName val="輸送業者による配送方法"/>
-      <sheetName val="課税地"/>
-      <sheetName val="顧客クラス"/>
-      <sheetName val="顧客"/>
-      <sheetName val="顧客住所"/>
-      <sheetName val="顧客連絡先"/>
-      <sheetName val="製品グループ"/>
-      <sheetName val="製品"/>
-      <sheetName val="品目仕入先マスタ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4540,45 +8019,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C49EE1-8C3F-41FA-84BA-FAC48FABE31B}">
-  <dimension ref="B2:I77"/>
+  <dimension ref="B2:V530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="A564" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V584" sqref="V584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:9" ht="26.25">
+    <row r="2" spans="2:22" ht="26.25">
       <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="26.25">
+    <row r="3" spans="2:22" ht="26.25">
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="2:9" ht="26.25">
+    <row r="4" spans="2:22" ht="26.25">
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9" ht="26.25">
+    <row r="5" spans="2:22" ht="26.25">
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:9" s="9" customFormat="1" ht="26.25">
+    <row r="6" spans="2:22" s="9" customFormat="1" ht="26.25">
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" ht="21.75">
+    <row r="7" spans="2:22" ht="21.75">
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="77" spans="2:2" ht="21.75">
-      <c r="B77" s="7" t="s">
+    <row r="88" s="11" customFormat="1"/>
+    <row r="93" s="11" customFormat="1"/>
+    <row r="94" s="11" customFormat="1"/>
+    <row r="96" s="11" customFormat="1"/>
+    <row r="101" spans="2:2" s="11" customFormat="1"/>
+    <row r="102" spans="2:2" s="11" customFormat="1"/>
+    <row r="105" spans="2:2" ht="21.75">
+      <c r="B105" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
